--- a/MOSES SANINGO.xlsx
+++ b/MOSES SANINGO.xlsx
@@ -32337,7 +32337,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32418,11 +32418,12 @@
         <v>5000</v>
       </c>
       <c r="G5" s="3">
-        <v>1000</v>
+        <f>1000+2500</f>
+        <v>3500</v>
       </c>
       <c r="H5" s="3">
         <f>F5-G5</f>
-        <v>4000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -32470,10 +32471,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>2500</v>
+      </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -32732,10 +32735,12 @@
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>1500</v>
+      </c>
       <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>5800</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -32892,11 +32897,11 @@
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>67000</v>
+        <v>60500</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -32911,7 +32916,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P36</f>
-        <v>67000</v>
+        <v>60500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -32967,7 +32972,7 @@
       </c>
       <c r="G28" s="38">
         <f>G24</f>
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -33093,7 +33098,7 @@
       </c>
       <c r="G35" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-8550</v>
+        <v>-2050</v>
       </c>
       <c r="H35" s="40">
         <f>SUM(H33:H34)</f>
@@ -33101,7 +33106,7 @@
       </c>
       <c r="I35" s="40">
         <f>G35-H35</f>
-        <v>-8550</v>
+        <v>-2050</v>
       </c>
     </row>
   </sheetData>

--- a/MOSES SANINGO.xlsx
+++ b/MOSES SANINGO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" firstSheet="35" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="SEPTEMBER" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="342">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -1069,10 +1069,16 @@
     <t>EDWARD OTIENO</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>FOR THE MONTH OF  DECEMBER  2021</t>
   </si>
   <si>
-    <t>FOR THE MONTH OF  DECEMBER  2021</t>
+    <t>DAVE PAID LL</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>PAID ON 13/12</t>
   </si>
 </sst>
 </file>
@@ -24005,8 +24011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24147,7 +24153,7 @@
         <v>2000</v>
       </c>
       <c r="H7" s="56">
-        <f t="shared" ref="H7:H22" si="1">F7-G7</f>
+        <f>F7-G7</f>
         <v>5000</v>
       </c>
     </row>
@@ -24170,7 +24176,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H8:H22" si="1">F8-G8</f>
         <v>0</v>
       </c>
     </row>
@@ -24552,12 +24558,11 @@
         <v>6000</v>
       </c>
       <c r="G22" s="3">
-        <f>1800+1000+1000</f>
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -24613,11 +24618,11 @@
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
-        <v>36600</v>
+        <v>35600</v>
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="I24">
         <v>5776</v>
@@ -24643,7 +24648,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24-2500-1000</f>
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="I25">
         <v>1950</v>
@@ -24664,7 +24669,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31">
         <f>H24+O34</f>
-        <v>41126</v>
+        <v>42126</v>
       </c>
       <c r="I26" s="6">
         <f>I24-I25</f>
@@ -24735,7 +24740,7 @@
       </c>
       <c r="G28" s="38">
         <f>G24</f>
-        <v>36600</v>
+        <v>35600</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -24980,7 +24985,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-4000</v>
+        <v>-5000</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -24988,7 +24993,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-36000</v>
+        <v>-37000</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -25062,7 +25067,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25567,19 +25572,19 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3">
         <f>APRIL21!H22:H41</f>
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
         <v>3000</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>5200</v>
+        <f>D22+E22</f>
+        <v>6200</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>5200</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -25621,7 +25626,7 @@
       </c>
       <c r="D24" s="3">
         <f>APRIL21!H24:H43</f>
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -25629,7 +25634,7 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>61500</v>
+        <v>62500</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
@@ -25637,7 +25642,7 @@
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>33500</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -25651,7 +25656,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24-2500-1800-1000-5000</f>
-        <v>23200</v>
+        <v>24200</v>
       </c>
       <c r="M25" s="59" t="s">
         <v>281</v>
@@ -25679,7 +25684,7 @@
       </c>
       <c r="I26" s="67">
         <f>H25+P35</f>
-        <v>33826</v>
+        <v>34826</v>
       </c>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
@@ -25769,7 +25774,7 @@
       </c>
       <c r="G29" s="38">
         <f>APRIL21!I38</f>
-        <v>-36000</v>
+        <v>-37000</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -25976,7 +25981,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-10850</v>
+        <v>-11850</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -25984,7 +25989,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-32262</v>
+        <v>-33262</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -26558,17 +26563,17 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3">
         <f>'MAY21'!H22:H42</f>
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f>D22+E22+3000</f>
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="J22">
         <f>5200+5000</f>
@@ -26614,7 +26619,7 @@
       </c>
       <c r="D24" s="3">
         <f>'MAY21'!H24:H44</f>
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -26622,7 +26627,7 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
@@ -26630,7 +26635,7 @@
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>43100</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -26644,11 +26649,11 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24-2500-1800-1000</f>
-        <v>37800</v>
+        <v>38800</v>
       </c>
       <c r="I25" s="65">
         <f>H25+Q30+Q32+Q33</f>
-        <v>43426</v>
+        <v>44426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -26733,7 +26738,7 @@
       </c>
       <c r="G29" s="38">
         <f>'MAY21'!I38</f>
-        <v>-32262</v>
+        <v>-33262</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -26979,7 +26984,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-15212</v>
+        <v>-16212</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -26987,7 +26992,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-38414</v>
+        <v>-39414</v>
       </c>
       <c r="J38" s="65"/>
       <c r="Q38">
@@ -27061,7 +27066,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27560,19 +27565,19 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'JUNE 21'!H22:H41</f>
-        <v>8200</v>
+        <v>9200</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f>D22+E22+3000</f>
-        <v>11200</v>
+        <v>12200</v>
       </c>
       <c r="G22" s="3">
         <v>2000</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>9200</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -27614,7 +27619,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D5:D23)</f>
-        <v>40600</v>
+        <v>41600</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -27622,7 +27627,7 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>72600</v>
+        <v>73600</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
@@ -27630,7 +27635,7 @@
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -27645,7 +27650,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P39</f>
-        <v>41426</v>
+        <v>42426</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -27732,7 +27737,7 @@
       </c>
       <c r="G29" s="38">
         <f>'JUNE 21'!I38</f>
-        <v>-38414</v>
+        <v>-39414</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -27977,7 +27982,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-5864</v>
+        <v>-6864</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -27985,7 +27990,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-23550</v>
+        <v>-24550</v>
       </c>
       <c r="J38" s="65"/>
       <c r="N38" s="6" t="s">
@@ -28568,17 +28573,17 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'JULY 21'!H22:H40</f>
-        <v>9200</v>
+        <v>10200</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f>D22+E22+3000</f>
-        <v>12200</v>
+        <v>13200</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>12200</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -28619,7 +28624,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D5:D23)</f>
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -28627,7 +28632,7 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
@@ -28635,7 +28640,7 @@
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>37300</v>
+        <v>38300</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -28650,7 +28655,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P39</f>
-        <v>44076</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -28737,7 +28742,7 @@
       </c>
       <c r="G29" s="38">
         <f>'JULY 21'!I38</f>
-        <v>-23550</v>
+        <v>-24550</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -28975,7 +28980,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-4050</v>
+        <v>-5050</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -28983,7 +28988,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-25191</v>
+        <v>-26191</v>
       </c>
       <c r="J38" s="65"/>
       <c r="K38" s="65"/>
@@ -29064,7 +29069,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29554,19 +29559,19 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'AUGUST 21'!H22:H40</f>
-        <v>12200</v>
+        <v>13200</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f>D22+E22+3000</f>
-        <v>15200</v>
+        <v>16200</v>
       </c>
       <c r="G22" s="3">
         <v>4000</v>
       </c>
       <c r="H22" s="13">
         <f>F22-G22</f>
-        <v>11200</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -29608,7 +29613,7 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D5:D23)</f>
-        <v>37300</v>
+        <v>38300</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -29616,7 +29621,7 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>61300</v>
+        <v>62300</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
@@ -29624,7 +29629,7 @@
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -29639,7 +29644,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P39</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -29715,7 +29720,7 @@
       </c>
       <c r="G29" s="38">
         <f>'AUGUST 21'!I38</f>
-        <v>-25191</v>
+        <v>-26191</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -29873,7 +29878,7 @@
       </c>
       <c r="G38" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-10241</v>
+        <v>-11241</v>
       </c>
       <c r="H38" s="40">
         <f>SUM(H33:H37)</f>
@@ -29881,7 +29886,7 @@
       </c>
       <c r="I38" s="40">
         <f>G38-H38</f>
-        <v>-28432</v>
+        <v>-29432</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -29947,7 +29952,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30447,22 +30452,22 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'SEPT 21'!H22:H45</f>
-        <v>11200</v>
+        <v>12200</v>
       </c>
       <c r="E22" s="3">
         <v>3000</v>
       </c>
       <c r="F22" s="3">
         <f>D22+E22</f>
-        <v>14200</v>
+        <v>15200</v>
       </c>
       <c r="G22" s="3">
-        <f>4000+1500+1000</f>
-        <v>6500</v>
+        <f>1500+1000</f>
+        <v>2500</v>
       </c>
       <c r="H22" s="13">
         <f>F22-G22</f>
-        <v>7700</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -30504,7 +30509,7 @@
       </c>
       <c r="D24" s="3">
         <f>'SEPT 21'!H24:H47</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -30512,15 +30517,15 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>73500</v>
+        <v>74500</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
-        <v>34850</v>
+        <v>30850</v>
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>38650</v>
+        <v>43650</v>
       </c>
       <c r="I24" s="66"/>
     </row>
@@ -30528,14 +30533,14 @@
       <c r="C25" s="34"/>
       <c r="D25" s="3">
         <f>'SEPT 21'!H25:H48</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P36</f>
-        <v>38650</v>
+        <v>43650</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -30591,7 +30596,7 @@
       </c>
       <c r="G28" s="38">
         <f>G24</f>
-        <v>34850</v>
+        <v>30850</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -30611,7 +30616,7 @@
       </c>
       <c r="G29" s="38">
         <f>'SEPT 21'!I38</f>
-        <v>-28432</v>
+        <v>-29432</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -30723,7 +30728,7 @@
       </c>
       <c r="G35" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>3318</v>
+        <v>-1682</v>
       </c>
       <c r="H35" s="40">
         <f>SUM(H33:H34)</f>
@@ -30731,7 +30736,7 @@
       </c>
       <c r="I35" s="40">
         <f>G35-H35</f>
-        <v>-13542</v>
+        <v>-18542</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -30796,8 +30801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:L40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31006,11 +31011,11 @@
         <v>3350</v>
       </c>
       <c r="G10" s="3">
-        <v>1650</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>1700</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -31159,7 +31164,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -31182,7 +31187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -31210,7 +31215,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -31235,7 +31240,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -31262,7 +31267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -31289,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -31299,22 +31304,22 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'OCTOBER  21'!H22:H40</f>
-        <v>7700</v>
+        <v>12700</v>
       </c>
       <c r="E22" s="3">
         <v>3000</v>
       </c>
       <c r="F22" s="3">
         <f>D22+E22</f>
-        <v>10700</v>
+        <v>15700</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="13">
         <f>F22-G22</f>
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -31342,8 +31347,12 @@
         <v>800</v>
       </c>
       <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>H22-5000</f>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
@@ -31353,7 +31362,7 @@
       </c>
       <c r="D24" s="3">
         <f>'SEPT 21'!H24:H47</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
@@ -31361,33 +31370,33 @@
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>72650</v>
+        <v>77650</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
-        <v>27650</v>
+        <v>27400</v>
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>45000</v>
+        <v>50250</v>
       </c>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="34"/>
       <c r="D25" s="3">
         <f>'SEPT 21'!H25:H48</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="35">
         <f>H24+P36</f>
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>13</v>
       </c>
@@ -31403,7 +31412,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>15</v>
       </c>
@@ -31425,7 +31434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
         <v>52</v>
       </c>
@@ -31440,12 +31449,12 @@
       </c>
       <c r="G28" s="38">
         <f>G24</f>
-        <v>27650</v>
+        <v>27400</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>5</v>
       </c>
@@ -31460,12 +31469,12 @@
       </c>
       <c r="G29" s="38">
         <f>'OCTOBER  21'!I35</f>
-        <v>-13542</v>
+        <v>-18542</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>70</v>
       </c>
@@ -31479,7 +31488,7 @@
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
@@ -31503,7 +31512,7 @@
       </c>
       <c r="I31" s="29"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
@@ -31574,7 +31583,7 @@
       </c>
       <c r="G35" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>10958</v>
+        <v>5708</v>
       </c>
       <c r="H35" s="40">
         <f>SUM(H33:H34)</f>
@@ -31582,7 +31591,7 @@
       </c>
       <c r="I35" s="40">
         <f>G35-H35</f>
-        <v>-17400</v>
+        <v>-22650</v>
       </c>
     </row>
   </sheetData>
@@ -32334,13 +32343,16 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
@@ -32364,7 +32376,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -32418,12 +32430,11 @@
         <v>5000</v>
       </c>
       <c r="G5" s="3">
-        <f>1000+2500</f>
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="3">
         <f>F5-G5</f>
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -32535,19 +32546,22 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <f>'NOVEMBER 21'!H10:H28</f>
+        <v>1950</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>4450</v>
+      </c>
+      <c r="G10" s="3">
+        <f>500+400+800</f>
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>4200</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -32637,10 +32651,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>1300</v>
+      </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -32693,7 +32709,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -32716,7 +32732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -32736,14 +32752,15 @@
         <v>5800</v>
       </c>
       <c r="G18" s="3">
-        <v>1500</v>
+        <f>1500+500</f>
+        <v>2000</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>233</v>
       </c>
@@ -32770,7 +32787,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -32797,7 +32814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -32816,13 +32833,15 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>3000</v>
+      </c>
       <c r="H21" s="13">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -32832,22 +32851,22 @@
       <c r="C22" s="63"/>
       <c r="D22" s="3">
         <f>'NOVEMBER 21'!H22:H40</f>
-        <v>10700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3000</v>
-      </c>
+        <v>15700</v>
+      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3">
         <f>D22+E22</f>
-        <v>13700</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>15700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3000</v>
+      </c>
       <c r="H22" s="13">
         <f>F22-G22</f>
-        <v>13700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -32867,15 +32886,16 @@
         <v>3800</v>
       </c>
       <c r="G23" s="3">
-        <v>1000</v>
+        <f>1000+800+400</f>
+        <v>2200</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
@@ -32885,41 +32905,41 @@
       </c>
       <c r="D24" s="3">
         <f>SUM(D5:D23)</f>
-        <v>45000</v>
+        <v>50250</v>
       </c>
       <c r="E24" s="30">
         <f>SUM(E5:E23)</f>
-        <v>31500</v>
+        <v>28500</v>
       </c>
       <c r="F24" s="30">
         <f>SUM(F5:F23)</f>
-        <v>79000</v>
+        <v>81250</v>
       </c>
       <c r="G24" s="30">
         <f>SUM(G5:G23)</f>
-        <v>18500</v>
+        <v>26700</v>
       </c>
       <c r="H24" s="30">
         <f>SUM(H5:H23)</f>
-        <v>60500</v>
+        <v>54550</v>
       </c>
       <c r="I24" s="66"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="34"/>
       <c r="D25" s="3">
         <f>'SEPT 21'!H25:H48</f>
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="46"/>
       <c r="G25" s="10"/>
       <c r="H25" s="35">
-        <f>H24+P36</f>
-        <v>60500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f>H24+P38</f>
+        <v>54550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
         <v>13</v>
       </c>
@@ -32935,7 +32955,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="30" t="s">
         <v>15</v>
       </c>
@@ -32957,27 +32977,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C28" s="38">
         <f>E24</f>
-        <v>31500</v>
+        <v>28500</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G28" s="38">
         <f>G24</f>
-        <v>18500</v>
+        <v>26700</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f>E24</f>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>5</v>
       </c>
@@ -32992,12 +33016,16 @@
       </c>
       <c r="G29" s="38">
         <f>'NOVEMBER 21'!I35</f>
-        <v>-17400</v>
+        <v>-22650</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N29" s="15">
+        <f>D31</f>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>70</v>
       </c>
@@ -33010,8 +33038,12 @@
       <c r="G30" s="38"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N30" s="15">
+        <f>N28-N29</f>
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
@@ -33020,7 +33052,7 @@
       </c>
       <c r="D31" s="38">
         <f>C31*C28</f>
-        <v>3150</v>
+        <v>2850</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29" t="s">
@@ -33031,11 +33063,14 @@
       </c>
       <c r="H31" s="38">
         <f>G31*C28</f>
-        <v>3150</v>
+        <v>2850</v>
       </c>
       <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>21</v>
       </c>
@@ -33050,63 +33085,133 @@
       <c r="G32" s="40"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="15">
+        <f>N30-N31</f>
+        <v>22650</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="29">
+        <v>3000</v>
+      </c>
       <c r="E33" s="30"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="29" t="s">
+        <v>274</v>
+      </c>
       <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="29">
+        <v>3000</v>
+      </c>
       <c r="I33" s="30"/>
       <c r="L33" s="15">
         <f>C28-D31</f>
-        <v>28350</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+        <v>25650</v>
+      </c>
+      <c r="N33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="D34" s="29">
+        <v>800</v>
+      </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="29"/>
+      <c r="F34" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="H34" s="29">
+        <v>800</v>
+      </c>
       <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="L34" s="15"/>
+      <c r="N34" s="15">
+        <f>N32-N33</f>
+        <v>21850</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29">
+        <v>1012</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29">
+        <v>1012</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="L35" s="15"/>
+      <c r="N35" s="15"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29">
+        <f>17500+4350</f>
+        <v>21850</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29">
+        <f>17500+4350</f>
+        <v>21850</v>
+      </c>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C37" s="40">
         <f>C28+C29+C30-D31</f>
-        <v>28350</v>
-      </c>
-      <c r="D35" s="40">
-        <f>SUM(D33:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="40">
-        <f>C35-D35</f>
-        <v>28350</v>
-      </c>
-      <c r="F35" s="30" t="s">
+        <v>25650</v>
+      </c>
+      <c r="D37" s="40">
+        <f>SUM(D33:D36)</f>
+        <v>26662</v>
+      </c>
+      <c r="E37" s="40">
+        <f>C37-D37</f>
+        <v>-1012</v>
+      </c>
+      <c r="F37" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G37" s="40">
         <f>G28+G29+G30-H31</f>
-        <v>-2050</v>
-      </c>
-      <c r="H35" s="40">
-        <f>SUM(H33:H34)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="40">
-        <f>G35-H35</f>
-        <v>-2050</v>
+        <v>1200</v>
+      </c>
+      <c r="H37" s="40">
+        <f>SUM(H33:H36)</f>
+        <v>26662</v>
+      </c>
+      <c r="I37" s="40">
+        <f>G37-H37</f>
+        <v>-25462</v>
+      </c>
+      <c r="L37">
+        <f>15700-7000</f>
+        <v>8700</v>
       </c>
     </row>
   </sheetData>
